--- a/Cohere eval/evaluation_eng_guj-cohere.xlsx
+++ b/Cohere eval/evaluation_eng_guj-cohere.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Evaluation" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1009,7 +1009,7 @@
     <t>પોસ્ટેડ સ્પીડ લિમિટ પાછળના અને બાદમાંના વિભાગોમાં નોટિસ કરવાયેલ નીચી છે, સામાન્યરૂપથી 35-40 માઈલ પ્રથમ (56-64 કિલોમીટર પ્રથમ) અને તેમના પ્રતિ અનુસરણ માટે આવશ્યકતાને અત્યંત મહત્વ આપવામાં આવે છે.</t>
   </si>
   <si>
-    <t>यूनिवर्सिटी ऑफ डंडी की प्रोफेसर पैमेला फर्ग्युसन नोट करती है कि, "अगर संदिग्धों की तस्वीरें प्रकाशित की जाती हैं तो पत्रकारों को एक खतरनाक राह पर चलना पड़ सकता है."</t>
+    <t>ડિયુન્ડી યુનિવર્સિટીના પ્રોફેસર પામેલા ફર્ગ્યુસન નોટ કરે છે, "સંશોધકો સંશયાસ્પદ રેખા પર ચાલી રહ્યા હોય છે જો સંદીગ્ધનો છબી આદિ પ્રકાશિત કરવામાં આવે.</t>
   </si>
   <si>
     <t>ઘોડાઓને પહેલા ૧૦,૦૦૦ વર્ષ પહેલા ઇરાનના ઝાગ્રોસ પર્વતમાળામાં પહેલી બાર કરવામાં આવ્યા હતા.</t>
@@ -1030,7 +1030,7 @@
     <t>વિશ્વ યુદ્ધ 2 દરમિયાન જર્મની એક સામાન્ય શત્રુ હતી, અને તેણી કારણે યુએસએસઆર અને યુએસએ બીચમાં સહકાર થયો. જયારે યુદ્ધ અવસાન થયો, ત્યારે સિસ્ટમ, પ્રક્રિયા અને સંસ્કૃતિના ટકરાઓથી દેશોમાંથી નાટકીય રીતે વિચ્છેદ થયો.</t>
   </si>
   <si>
-    <t>पण "उच्च उष्णकटिबंध"मध्ये स्थित होणार, ज्याचे आकाशमार्गी उत्तरेकडे केवळ काही कोणांत असताना, तुम्हाला उष्णतेपासह (होणार) आणि तीव्र सूर्यासह (आकाश स्पष्ट असताना काही कमी वेळानंतर) निबाण्याची गरज पाडणार.</t>
+    <t>પણ તમે "ઉંચા ઉષ્ણાકાલિક પ્રદેશ"માં રહેતા હોય છો, જ્યાં આપને સમાનંતર તપનો સામ્રાજ્ય અને સમુદ્ર માટે કેવળ કેટલાક ડિગ્રી ઉત્તર પશ્ચિમમાં હોવાનું પડતું હશે, ત્યાં તમને ગરમી (હંમેશા) અને તાકતીરક સૂર્યનો (સ્પષ્ટ આકાશમાં, વિરળતાથી વિરળતાથી) સામ્યો જોવાનું પડશે.</t>
   </si>
   <si>
     <t>ટોંગામાં કોઈ મોટી ક્ષતિ કે જ્વર સંમતિત નથી, પરંતુ વિદ્યુતિ આવૃત્તિની કારણથી અસ્થાયી રીતે વિચ્છેદિત થયું હતું, જેને તોંગાન કાર્યાલયને પીટીડબ્લ્યુસીએ જારી કરેલી સુનામીનો સંદેશ મળવાનું રોક્યું હતું.</t>
@@ -1039,7 +1039,7 @@
     <t>ચાર વર્ષમાં માર્ટેલ્લીનું પાંચવામા સી.ઇ.પી. છે.</t>
   </si>
   <si>
-    <t>हैमिल्टन ने पुष्टि की कि हावर्ड यूनिवर्सिटी हॉस्पिटल ने स्थिर हालत में मरीज़ को भर्ती किया था।</t>
+    <t>હેમિલ્ટન હોવાર્ડ યુનિવર્સિટી હોસ્પિટલ દ્વારા રોગીનો સ્થિર અવસ્થામાં ભર્તી કરવાનું કર્યું છે.</t>
   </si>
   <si>
     <t>સ્ત્રીઓ: આવશ્યક છે કે કોઈ પણ સ્ત્રી પર્યટકનો કહે કે તેમણે લગ્ન કર્યું છે, તેમણીના અસલી વિવાહિત અવસ્થા સંબંધી કંઈ પણ વિચારો છે.</t>
@@ -1093,10 +1093,10 @@
     <t>તેને વધારે જાળવી માટે એકમાત્ર રાસ્તો તેને ચેકિંગ બેગેજ તરીકે મોકલવો હતો. વિમાન કંપનીઓના નિયમ બગેજ બિના યાત્રીને મોકલવા અનુમતિ નહિ, જ્યાં તમે આવો છો.</t>
   </si>
   <si>
-    <t>तेने कयोकि उवाच थाते "राजनीतिक गपशप आणि बेसिर पैर की बात".</t>
-  </si>
-  <si>
-    <t>1537 ma asuncion nu jamanavar badhu, paragua ne apno aadivasi swabhaav ane astitva nu bahot bhag bachaavyo chhe.</t>
+    <t>તેણે આ કળ્પનાઓને "રાજકીય ચર્ચા અને વાવગાડી" તરીકે દર્શાવ્યા.</t>
+  </si>
+  <si>
+    <t>અસુન્સિઓનની 1537માં સ્થાપના થી, પારાગુએ તેમના આદિવાસી અસ્તિત્વ અને પરિચયનો બહુતકંઠો ભાગ બાકી રાખ્યો છે.</t>
   </si>
   <si>
     <t>તેના 78 સંસોધનોમાંના પ્રથમ સંસોધન છે કે આ વર્ષના અંતમાં નવી કારસ્થીનો કરવાની જરૂર છે તાકી ઇરાકના સરહદોને વિરોધી કાર્યવાઈની કાર્યવાહીઓથી બંધ કરવા અને તેના પાસેથીના દેશોના સાથે કારસ્થી સંબંધો પુનઃસ્થાપિત કરવા.</t>
@@ -1162,7 +1162,7 @@
     <t>તુર્કીનામાં ઇઝમીર ત્રીજી વડી શહેર છે, જ્યાં પ્રાય 3.7 મિલિયન વસતી છે, ઇસ્તાંબુલ પછી દ્વિતીય મોટી બંદર છે અને તે વધારે છાંજી ટ્રાન્ઝિટ હબ છે.</t>
   </si>
   <si>
-    <t>તેના પર્યટન દરમ્યાન, ઇવાસાકીને અનેક વાર તકલીફાતોની સમાનોરોપ થઈ.</t>
+    <t>તેના પર્યટન દરમિયાન, ઇવાસાકીએ બહુવાર બાધાઓના સમુદ્રમાં પડ્યો.</t>
   </si>
   <si>
     <t>તે આલ્પાઈન શાઉન સ્કી ટુરિંગ કે પર્વતારોહણથી જુડાયેલું છે પણ તેમાં સામાન્યરૂપે સંમિલિત નથી, જેમકે તીવ્ર ભૂમિમાં કરવામાં આવે છે અને જડીલી સ્કીઓ અને બૂટસની જરૂર પડે છે.</t>
@@ -1186,7 +1186,7 @@
     <t>પ્રદેશની મુખ્ય લોકલ બીર છે 'નંબર વન', તે એક સરળ બીર નથી, પણ સુસ્વાદુ અને તાજાદાયક છે. બીરનું બીજું પ્રદેશિક નામ છે "મંતા".</t>
   </si>
   <si>
-    <t>વૈમનતાનિંદન પ્રકોપણના તુરંતેથી, બ્રિટનેનેચે જર્મની વિરુદ્ધ નૌસેનિક નકાબંધ શરૂ કર્યો.</t>
+    <t>વૈરતાના પ્રકોપણના તુરંત પછી, બ્રિટનેલને જર્મની વિરુદ્ધ નૌસેનિક બંદરબસ્ત શરૂ કર્યું.</t>
   </si>
   <si>
     <t>વોયેજર્સ જેને વિદેશમાં લિંગપરિવર્તન સર્જરી કરાવવાની જરૂર છે, તેઓએ વાપરવા માટે તેઓના પસારથી વાપરવા માટે માન્ય દસ્તાવેજો હોવાથી ખાતરી કરવી જોઈએ.</t>
@@ -1276,7 +1276,7 @@
     <t>તે [વેલ્સ] આદ્યતિકાલથી આમાં જુથોથી જુઠ બોલ્યો. પહેલાં, જેમકે આ કારણો કાનૂની હતા તેવું વર્તન કરીને અને બાદમાં, જેમકે આમાં જુથો સાંભળી રહ્યો હતો, તેમના કલાન્તરની મિતિ પર્યંત આમાં જુથોને બોલાવવામાં.</t>
   </si>
   <si>
-    <t>एनपीडब्लयूएस के एक्टिंग डायरेक्टर पार्क कंज़र्वेशन एंड हेरिटेज, मिक ओ'फ्लिन के अनुसार, पहली शूटिंग ऑपरेशन के लिए चुने गए चार शूटर्स को व्यापक सुरक्षा और प्रशिक्षण निर्देश दिया गया था।</t>
+    <t>એકટિંગ ડિરેક્ટર પાર્ક કન્સર્વેશન અને હેરિટેજ એનપીડબ્લ્યુએસ સાથે, મિક ઓ'ફ્લ્યોઇન અનુસાર, પહેલા શૂટિંગ અપરેશન માટે પસંદ કરેલા છત્ર શૂટરોએ સામાન્ય સુરક્ષા અને શિક્ષણ સંબંધી સૂચનાઓ મળી.</t>
   </si>
   <si>
     <t>વિશ્વમાં બહુસંખ્યક અન્યમતવાદીઓ અને ખ્રિસ્તી દેશોમાંના અન્યમતવાદીઓ પણ આ છૂટિના દિવસ સંબંધિત બહુવિધ પરંપરાઓને સ્વીકારી છે.</t>
@@ -1306,7 +1306,7 @@
     <t>હજારો વર્ષ પહેલા એક વ્યક્તિ જેનું નામ અરિસ્ટાર્કસ હતું તેણે કહ્યું કે સોલાર સિસ્ટમ સૂર્ય અને વગરે છેલે છે.</t>
   </si>
   <si>
-    <t>पण ASUS को २००७ ताईवान सस्टेनेबल अवार्ड विजेता म्हणून चीन गणराज्याच्या एक्जिक्युटिव युआन द्वारे नामित केल्याने लेपटॉप कंप्यूटराच्या उपभोक्ता बाजारात चांगले बदल आणि भिन्नता येणार आहे.</t>
+    <t>પરંતુ લેપટોપ કંપ્યુટર્સના વિહિતકારક બજારને ASUSને ચીનાર ગુણવત્તા પ્રશાસન દ્વારા 2007માં ચીના પૂર્વાંગના સ્થાયી પાવટના પામ્યા બાદ ગંભીર રીતે વિવિધતા અને બદલાવવામાં આવશે.</t>
   </si>
   <si>
     <t>બાકીના વ્યક્તિઓને પ્રાણીઓએ પાળક છે તેવું કહેવામાં આવ્યું છે; કેટલાકને જંગલમાં પકારવાર જીવવાનું કહેવામાં આવ્યું છે.</t>
@@ -1348,7 +1348,7 @@
     <t>ટ્રમ્પ અને તુર્કી અધ્યક્ષ રેસેપ તાયીપ એર્દોગન વચ્ચે ફોન વાતચીતરના બાદ આ ઘોષણા કરવામાં આવી.</t>
   </si>
   <si>
-    <t>लेटन ने प्रधान मंत्री के साथ बैठक के दौरान पर्यावरण बिल में संशोधन की मांग की थी, और कंज़र्वेटिव पार्टी के पर्यावरण बिल को पूरी तरह से फिर से लिखने की मांग की थी.</t>
+    <t>લેટને પીએમ સાથે બનેલી બાતચીત્રમાં કંસર્વેટિવ્સના પરિવરણ બિલમાં ફેરફાર માંગવાની માંગીને કહ્યું કે કંસર્વેટિવ પાર્ટીના પરિવરણ બિલને પુનઃરચના કરવાની જરૂર છે.</t>
   </si>
   <si>
     <t>ડિવલ, જે લગ્નપતિ છે અને જેના દુઇ વયસ્ક સંતાનો છે, તેણે મિલ્લર પર ખાસ અસર પણ નથી પાડી, જેને વાર્તા સંબંધિત કરવામાં આવી હતી.</t>
@@ -2142,7 +2142,7 @@
         <v>331</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.03888775058377741</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2240,7 +2240,7 @@
         <v>338</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.03331594744649897</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2282,7 +2282,7 @@
         <v>341</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.02193169733777606</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2534,7 +2534,7 @@
         <v>359</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>0.02573285025273419</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2548,7 +2548,7 @@
         <v>360</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.02042732089781867</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2856,7 +2856,7 @@
         <v>382</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>0.02523907356031767</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2968,7 +2968,7 @@
         <v>390</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>0.02159826505221162</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3388,7 +3388,7 @@
         <v>420</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>0.03189964696245855</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3528,7 +3528,7 @@
         <v>430</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>0.0310141975656805</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3724,7 +3724,7 @@
         <v>444</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>0.02415090513694114</v>
       </c>
     </row>
     <row r="143" spans="1:4">
